--- a/Modlist.xlsx
+++ b/Modlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricco\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8D11BE-0805-44A6-8648-F99E18D86864}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDCBA67-E243-4B07-9DDA-9E8046934D2C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85FD2EE5-530A-4290-84A4-6DBD99CAE877}"/>
+    <workbookView xWindow="4608" yWindow="720" windowWidth="17280" windowHeight="9420" xr2:uid="{85FD2EE5-530A-4290-84A4-6DBD99CAE877}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="332">
   <si>
     <t>Actually Additions</t>
   </si>
@@ -1003,6 +1003,30 @@
   </si>
   <si>
     <t>zerocore-1.12.2-0.1.2.8.jar</t>
+  </si>
+  <si>
+    <t>AbyssalCraft</t>
+  </si>
+  <si>
+    <t>Shinoow</t>
+  </si>
+  <si>
+    <t>AbyssalCraft-1.12.2-1.9.10.jar</t>
+  </si>
+  <si>
+    <t>NotEnoughIDs</t>
+  </si>
+  <si>
+    <t>fewizz</t>
+  </si>
+  <si>
+    <t>NotEnoughIDs-1.5.4.4.jar</t>
+  </si>
+  <si>
+    <t>Akashic Tome</t>
+  </si>
+  <si>
+    <t>AkashicTome-1.2-12.jar</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1131,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DFF5E8B-8D99-46EB-8C7C-8525907A0945}" name="Table1" displayName="Table1" ref="D5:F138" totalsRowShown="0" headerRowBorderDxfId="0">
-  <autoFilter ref="D5:F138" xr:uid="{4D39AE7F-85A1-4A28-9BE1-1EE9C18A1015}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DFF5E8B-8D99-46EB-8C7C-8525907A0945}" name="Table1" displayName="Table1" ref="D5:F141" totalsRowShown="0" headerRowBorderDxfId="0">
+  <autoFilter ref="D5:F141" xr:uid="{4D39AE7F-85A1-4A28-9BE1-1EE9C18A1015}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F9BD1179-9D40-48A1-90CE-93DA2704972F}" name="Modname"/>
     <tableColumn id="2" xr3:uid="{72FA7DA2-7F26-4A73-B286-41C1E37E5157}" name="Author"/>
@@ -1415,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759D90E8-5B3E-4277-B290-37953BBCC690}">
-  <dimension ref="D5:F126"/>
+  <dimension ref="D5:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1439,1459 +1463,1500 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="4:6" ht="15" thickBot="1">
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="4:6">
+      <c r="D6" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" ht="15" thickBot="1">
+      <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6">
-      <c r="D7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="4:6">
       <c r="D8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6">
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6">
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
+        <v>330</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>14</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="4:6">
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="4:6">
       <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="4:6">
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="4:6">
       <c r="D14" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="4:6">
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="4:6">
       <c r="D16" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="4:6">
       <c r="D23" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="4:6">
       <c r="D25" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="4:6">
       <c r="D26" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="4:6">
       <c r="D27" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="4:6">
       <c r="D28" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="4:6">
       <c r="D29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6">
+      <c r="D31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6">
-      <c r="D30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" ht="19.8" thickBot="1">
-      <c r="D31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="32" spans="4:6">
       <c r="D32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="15" thickBot="1">
+      <c r="D33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6">
+      <c r="D34" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6">
-      <c r="D33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6">
-      <c r="D34" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="35" spans="4:6">
       <c r="D35" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="4:6">
       <c r="D36" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="4:6">
-      <c r="D37" s="3" t="s">
-        <v>90</v>
+      <c r="D37" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="4:6">
       <c r="D38" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="4:6">
       <c r="D39" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="4:6">
       <c r="D40" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="4:6">
       <c r="D41" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="4:6">
       <c r="D42" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="4:6">
       <c r="D43" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>106</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="4:6">
       <c r="D44" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="4:6">
       <c r="D45" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="4:6">
       <c r="D46" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="4:6">
       <c r="D47" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="4:6">
       <c r="D48" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="4:6">
       <c r="D49" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="4:6">
       <c r="D50" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="4:6">
       <c r="D51" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="4:6">
       <c r="D52" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="4:6">
       <c r="D53" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="4:6">
       <c r="D54" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="4:6">
       <c r="D55" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" spans="4:6">
       <c r="D56" s="4" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="4:6">
       <c r="D57" s="4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="4:6">
       <c r="D58" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="4:6">
       <c r="D59" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="4:6">
       <c r="D60" s="4" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="4:6">
       <c r="D61" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="4:6">
       <c r="D62" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="4:6">
       <c r="D63" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="4:6">
       <c r="D64" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="4:6">
       <c r="D65" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>162</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="4:6">
       <c r="D66" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="4:6">
       <c r="D67" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="4:6">
       <c r="D68" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="4:6">
       <c r="D69" s="4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="4:6">
       <c r="D70" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="4:6">
       <c r="D71" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="4:6">
       <c r="D72" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="4:6">
       <c r="D73" s="4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="4:6">
       <c r="D74" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="4:6">
       <c r="D75" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="4:6">
       <c r="D76" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="4:6">
       <c r="D77" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="4:6">
       <c r="D78" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="4:6">
       <c r="D79" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="4:6">
       <c r="D80" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="4:6">
       <c r="D81" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="4:6">
       <c r="D82" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="4:6">
       <c r="D83" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="4:6">
       <c r="D84" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="4:6">
       <c r="D85" s="4" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>70</v>
+        <v>215</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="4:6">
       <c r="D86" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="4:6">
       <c r="D87" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="4:6">
       <c r="D88" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="4:6">
       <c r="D89" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="4:6">
       <c r="D90" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="4:6">
       <c r="D91" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="4:6">
       <c r="D92" s="4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="4:6">
       <c r="D93" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="4:6">
       <c r="D94" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="4:6">
       <c r="D95" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="4:6">
       <c r="D96" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="4:6">
       <c r="D97" s="4" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="4:6">
       <c r="D98" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="4:6">
       <c r="D99" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>250</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="4:6">
       <c r="D100" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="4:6">
       <c r="D101" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="4:6">
       <c r="D102" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="4:6">
       <c r="D103" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>21</v>
+        <v>258</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="104" spans="4:6">
       <c r="D104" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>269</v>
+        <v>39</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="4:6">
       <c r="D105" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="4:6">
       <c r="D106" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="4:6">
       <c r="D107" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>91</v>
+        <v>269</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108" spans="4:6">
       <c r="D108" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="4:6">
       <c r="D109" s="4" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>285</v>
+        <v>106</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="4:6">
       <c r="D110" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="4:6">
       <c r="D111" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>288</v>
+        <v>214</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="4:6">
       <c r="D112" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="4:6">
       <c r="D113" s="4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>293</v>
+        <v>68</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="114" spans="4:6">
       <c r="D114" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>29</v>
+        <v>288</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="115" spans="4:6">
       <c r="D115" s="4" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="116" spans="4:6">
       <c r="D116" s="4" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>91</v>
+        <v>293</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="4:6">
       <c r="D117" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="118" spans="4:6">
       <c r="D118" s="4" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="119" spans="4:6">
       <c r="D119" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>305</v>
+        <v>91</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="4:6">
       <c r="D120" s="4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>306</v>
+        <v>91</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="121" spans="4:6">
       <c r="D121" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>317</v>
+        <v>213</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="122" spans="4:6">
       <c r="D122" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="4:6">
       <c r="D123" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>30</v>
+        <v>306</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="124" spans="4:6">
       <c r="D124" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>130</v>
+        <v>317</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="4:6">
       <c r="D125" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>119</v>
+        <v>316</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="126" spans="4:6">
       <c r="D126" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6">
+      <c r="D127" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6">
+      <c r="D128" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6">
+      <c r="D129" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E129" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="F129" s="3" t="s">
         <v>323</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/225194" xr:uid="{82D7C669-C07A-47DB-8368-38C5552B3C84}"/>
-    <hyperlink ref="D10" r:id="rId2" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223794" xr:uid="{CDA32688-FD84-4BEA-84F2-ECDD4FDCC9EA}"/>
-    <hyperlink ref="D11" r:id="rId3" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/277631" xr:uid="{A93EF2F3-A096-411A-BCCE-22E445B6F143}"/>
-    <hyperlink ref="D12" r:id="rId4" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/241721" xr:uid="{C07EFA14-B5A4-4126-9A04-BDAF752CB432}"/>
-    <hyperlink ref="D13" r:id="rId5" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/250363" xr:uid="{22CFA1D6-B553-40A5-A168-21F892A36398}"/>
-    <hyperlink ref="D14" r:id="rId6" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/246996" xr:uid="{AF4DA588-9461-4BB7-90E1-FEB558091BF9}"/>
-    <hyperlink ref="D15" r:id="rId7" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/227083" xr:uid="{47DC02CA-0B63-4135-B614-CCB4B4D07E26}"/>
-    <hyperlink ref="D16" r:id="rId8" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/70496" xr:uid="{264A37CB-156B-4546-AB91-872029483F10}"/>
-    <hyperlink ref="D17" r:id="rId9" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/278406" xr:uid="{AB9C83AB-9F26-4B6A-AA68-3B0453985443}"/>
-    <hyperlink ref="D18" r:id="rId10" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/238856" xr:uid="{95A93D28-FE78-4B3E-9A65-AD663C445542}"/>
-    <hyperlink ref="D19" r:id="rId11" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/242106" xr:uid="{DB014293-9180-4283-B114-7D88FFC0BEAC}"/>
-    <hyperlink ref="D20" r:id="rId12" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/242039" xr:uid="{4067E01B-6BCB-4D59-9427-4024333D7A5D}"/>
-    <hyperlink ref="D21" r:id="rId13" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/238857" xr:uid="{C3630EE2-96C5-4DEB-971A-28D0568A0EE3}"/>
-    <hyperlink ref="D22" r:id="rId14" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/305563" xr:uid="{F5162677-FE68-44C3-A032-292B4349ACA0}"/>
-    <hyperlink ref="D23" r:id="rId15" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/294335" xr:uid="{40A6238C-A70D-405B-A1C7-4D4303AC9005}"/>
-    <hyperlink ref="D24" r:id="rId16" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/229876" xr:uid="{487FF06D-6971-496C-9F1F-E0F750D84ED9}"/>
-    <hyperlink ref="D25" r:id="rId17" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/228027" xr:uid="{28705440-FABB-4E9B-B1CC-D0923B824D5A}"/>
-    <hyperlink ref="D26" r:id="rId18" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/220318" xr:uid="{1C62EB0B-576B-4377-9609-D4A99DEB1319}"/>
-    <hyperlink ref="D27" r:id="rId19" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/224791" xr:uid="{BD76C755-2FEE-4D9A-B9B3-331F8AE81E44}"/>
-    <hyperlink ref="D28" r:id="rId20" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/278993" xr:uid="{B5780F74-F466-4B4E-95D3-E27C44FD2110}"/>
-    <hyperlink ref="D29" r:id="rId21" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/228525" xr:uid="{EA911A4D-4E9B-42C1-BF08-EF12F771E6E2}"/>
-    <hyperlink ref="D7" r:id="rId22" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/236542" xr:uid="{7FFB62ED-8871-4F24-BC9A-5560FD2E2130}"/>
-    <hyperlink ref="D31" r:id="rId23" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/231382" xr:uid="{F012D39E-698D-4CF0-AC08-FF7D658727C3}"/>
-    <hyperlink ref="D32" r:id="rId24" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/230497" xr:uid="{F772F055-149B-442E-A634-A41D89FA8173}"/>
-    <hyperlink ref="D35" r:id="rId25" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/242568" xr:uid="{941922C7-CFE9-4AFF-AF0F-FE4D4BF53BA1}"/>
-    <hyperlink ref="D36" r:id="rId26" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/242818" xr:uid="{A98F393D-9492-43E3-BFAD-961C5B39BED0}"/>
-    <hyperlink ref="D38" r:id="rId27" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/271384" xr:uid="{6BFD4AA6-0BB8-47E9-A5E7-F493EB54D0F4}"/>
-    <hyperlink ref="D39" r:id="rId28" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/267602" xr:uid="{21701178-D6D1-4617-ABB1-7804127B71BF}"/>
-    <hyperlink ref="D40" r:id="rId29" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/287683" xr:uid="{1D131AC1-D939-4B58-8B0E-DB2BF86DE36A}"/>
-    <hyperlink ref="D41" r:id="rId30" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/237065" xr:uid="{AEA758FD-08C0-4DD0-820A-8A0440B1C6DF}"/>
-    <hyperlink ref="D42" r:id="rId31" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/250398" xr:uid="{DB0C8555-BD55-4968-883C-569BBEAFD9AC}"/>
-    <hyperlink ref="D43" r:id="rId32" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/239197" xr:uid="{E0851F6B-97B4-4BD9-8356-C8BA71A9E2F9}"/>
-    <hyperlink ref="D44" r:id="rId33" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/280766" xr:uid="{A4087A63-9700-4258-8424-9DD69743A4DF}"/>
-    <hyperlink ref="D45" r:id="rId34" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/272335" xr:uid="{84E4D353-3D64-4DB4-9294-A23E8AD31D80}"/>
-    <hyperlink ref="D46" r:id="rId35" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/226406" xr:uid="{C6463227-8059-4BB3-8DE2-BC8608A53C0A}"/>
-    <hyperlink ref="D47" r:id="rId36" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/232131" xr:uid="{C74B6A00-C82A-4FB6-B720-7B972F159719}"/>
-    <hyperlink ref="D48" r:id="rId37" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223565" xr:uid="{27952F67-09BA-4B8D-A813-3F87B5E0A71C}"/>
-    <hyperlink ref="D49" r:id="rId38" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/252818" xr:uid="{0BB81E52-0A70-42DC-9787-5E96F34EDD2D}"/>
-    <hyperlink ref="D50" r:id="rId39" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/64578" xr:uid="{EF0C806A-BAA9-4A42-B293-A055380CC1F9}"/>
-    <hyperlink ref="D51" r:id="rId40" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/231868" xr:uid="{9865D987-2868-47F4-89F9-693E6589F6CC}"/>
-    <hyperlink ref="D52" r:id="rId41" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/245453" xr:uid="{A1788D0F-55DF-441C-A27A-81FB3C2CAC0F}"/>
-    <hyperlink ref="D53" r:id="rId42" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/274456" xr:uid="{84F4032F-BBDF-4210-A39D-7666A765D3B9}"/>
-    <hyperlink ref="D54" r:id="rId43" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/225561" xr:uid="{0200E818-BEA5-4FC7-8C47-2E1DEED1F967}"/>
-    <hyperlink ref="D55" r:id="rId44" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/250277" xr:uid="{1DB298D8-68B9-43C7-81BC-90C7672F25C7}"/>
-    <hyperlink ref="D56" r:id="rId45" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/230976" xr:uid="{DCBAE032-0B16-457B-98F8-876D0AB2B514}"/>
-    <hyperlink ref="D57" r:id="rId46" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/278494" xr:uid="{E82C944C-4A96-4670-8E03-9EBC0036149D}"/>
-    <hyperlink ref="D58" r:id="rId47" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/59751" xr:uid="{F0FAB706-2FCA-41BC-88D9-6D8F09F64116}"/>
-    <hyperlink ref="D59" r:id="rId48" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/268655" xr:uid="{3672CE95-38AA-4993-980F-E2B1C9C71E6D}"/>
-    <hyperlink ref="D60" r:id="rId49" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/296392" xr:uid="{11F1D48B-D090-4B8F-82FB-60899A8ED700}"/>
-    <hyperlink ref="D61" r:id="rId50" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/271856" xr:uid="{D63E5642-CF32-4416-B655-61E3478177A0}"/>
-    <hyperlink ref="D62" r:id="rId51" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/238551" xr:uid="{1453DC7E-385A-4CDF-894C-EF515441CDF2}"/>
-    <hyperlink ref="D63" r:id="rId52" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/228832" xr:uid="{9EC30197-A3F9-4679-ADE0-6384D5DDDE4F}"/>
-    <hyperlink ref="D64" r:id="rId53" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/283235" xr:uid="{7BFBCDC1-839F-4BAB-AF89-ED207997EC16}"/>
-    <hyperlink ref="D65" r:id="rId54" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/253449" xr:uid="{FA8DBE39-FCD4-435E-B0C2-D9188FE80AEA}"/>
-    <hyperlink ref="D66" r:id="rId55" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/231951" xr:uid="{425673B7-C67E-4505-8D1D-E6B9DBB20D55}"/>
-    <hyperlink ref="D67" r:id="rId56" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/268250" xr:uid="{221551AE-6F74-4D3D-B208-5E4E6D8254AF}"/>
-    <hyperlink ref="D68" r:id="rId57" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/274159" xr:uid="{BEA6140F-B433-4555-86EE-4268126907A5}"/>
-    <hyperlink ref="D69" r:id="rId58" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/266515" xr:uid="{0F234D3C-F60A-45B7-B66C-71880B2F82D3}"/>
-    <hyperlink ref="D70" r:id="rId59" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223094" xr:uid="{3E6A584D-C3DE-4BA7-ABC1-96522D939087}"/>
-    <hyperlink ref="D71" r:id="rId60" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/228756" xr:uid="{B5B05A19-EFE3-4213-9D22-99A7440C9CA3}"/>
-    <hyperlink ref="D72" r:id="rId61" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/309674" xr:uid="{F86133E5-A104-4C8F-BF7F-81946DD3D6DD}"/>
-    <hyperlink ref="D73" r:id="rId62" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/280316" xr:uid="{D1FB6A9D-939C-43F8-8695-9C6208A6FE59}"/>
-    <hyperlink ref="D74" r:id="rId63" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/32274" xr:uid="{9E57D62A-A07B-44A8-ACA8-29FC071165DF}"/>
-    <hyperlink ref="D75" r:id="rId64" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/238222" xr:uid="{88411E95-1A43-4EE3-B8B2-49B88AB37B62}"/>
-    <hyperlink ref="D76" r:id="rId65" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/240630" xr:uid="{AA960634-EE87-4E1D-BC91-CB9418814E17}"/>
-    <hyperlink ref="D77" r:id="rId66" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/297057" xr:uid="{DEC8FE79-32F6-4C55-A9D1-633105907B5F}"/>
-    <hyperlink ref="D78" r:id="rId67" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/236541" xr:uid="{317BEE96-9708-408D-9577-E898D889C543}"/>
-    <hyperlink ref="D79" r:id="rId68" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223896" xr:uid="{59B034F9-EB72-495E-8C48-379ADAC58BAF}"/>
-    <hyperlink ref="D80" r:id="rId69" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223891" xr:uid="{800E3D02-5269-4007-88D3-69AA87DC04ED}"/>
-    <hyperlink ref="D81" r:id="rId70" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/74924" xr:uid="{EDE7BACA-3441-4DE3-80E1-4B2A701FB0FA}"/>
-    <hyperlink ref="D82" r:id="rId71" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/233105" xr:uid="{95D22E81-2256-4B98-9728-0073C3094094}"/>
-    <hyperlink ref="D83" r:id="rId72" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/245506" xr:uid="{CB0367DB-D82F-4B65-898B-7A60385D061D}"/>
-    <hyperlink ref="D84" r:id="rId73" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/267172" xr:uid="{08896286-0AC0-4DC3-8F6B-CD9BDBD032CF}"/>
-    <hyperlink ref="D85" r:id="rId74" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/278359" xr:uid="{6A8E3997-67E3-48A3-B692-CF50932E560D}"/>
-    <hyperlink ref="D86" r:id="rId75" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/220954" xr:uid="{968AA982-F14C-4273-BD36-8A848846397F}"/>
-    <hyperlink ref="D87" r:id="rId76" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/243478" xr:uid="{C25C89FC-DCBF-4F6D-9CDB-C6F1AB812D00}"/>
-    <hyperlink ref="D88" r:id="rId77" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/69118" xr:uid="{D87BA1EE-ED0F-4401-A191-4A544DC616D1}"/>
-    <hyperlink ref="D89" r:id="rId78" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/60089" xr:uid="{3027124C-BEBA-48D2-AF4F-E9A33EC98202}"/>
-    <hyperlink ref="D90" r:id="rId79" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/286660" xr:uid="{CF29E4F7-432A-4902-BF81-B6E380FC4C98}"/>
-    <hyperlink ref="D91" r:id="rId80" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/253211" xr:uid="{714540EA-BE51-4CB9-B191-3B75B279C1C4}"/>
-    <hyperlink ref="D92" r:id="rId81" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/256247" xr:uid="{46ED9CB9-C4AB-45A1-9261-B703EFD5D877}"/>
-    <hyperlink ref="D93" r:id="rId82" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/246640" xr:uid="{BAEF4FB5-B73E-4E27-A467-53194A7E7805}"/>
-    <hyperlink ref="D94" r:id="rId83" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/241160" xr:uid="{89C807F9-60F3-4AC5-8307-E30D2BDC8B02}"/>
-    <hyperlink ref="D95" r:id="rId84" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/289380" xr:uid="{040E2C35-6CA9-4CB4-AF5C-7BB188DD4389}"/>
-    <hyperlink ref="D96" r:id="rId85" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/228816" xr:uid="{125DE3A5-6851-4D36-98D9-5FEDEF2DFE9B}"/>
-    <hyperlink ref="D97" r:id="rId86" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223008" xr:uid="{DE0A7F8C-4E34-48D3-AAD9-A3433A6DE259}"/>
-    <hyperlink ref="D98" r:id="rId87" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/287267" xr:uid="{3759B16B-6A05-4024-A4CC-5E6D80AD9255}"/>
-    <hyperlink ref="D99" r:id="rId88" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/228815" xr:uid="{B00AEEED-E3EF-4CD2-B945-86D4880B0DAC}"/>
-    <hyperlink ref="D100" r:id="rId89" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/226665" xr:uid="{3CF5375B-6484-493B-84F2-7F6477216C25}"/>
-    <hyperlink ref="D101" r:id="rId90" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/250898" xr:uid="{A960670F-617A-4B9C-9EDC-7886D9FEB3AA}"/>
-    <hyperlink ref="D102" r:id="rId91" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/221857" xr:uid="{CF702B70-B1BE-4011-A011-6FD8E6519D3A}"/>
-    <hyperlink ref="D103" r:id="rId92" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/243121" xr:uid="{E6167DCB-9C98-408B-94BF-4CF1F2855BD6}"/>
-    <hyperlink ref="D104" r:id="rId93" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/293192" xr:uid="{AA1F9C0A-F010-4E8A-9BC6-684E33325100}"/>
-    <hyperlink ref="D105" r:id="rId94" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/237701" xr:uid="{D012BD81-9661-4AB0-8889-05F18E2D30A6}"/>
-    <hyperlink ref="D106" r:id="rId95" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/280554" xr:uid="{15819F23-2B23-4DF7-A6B3-E50FD835F4C7}"/>
-    <hyperlink ref="D107" r:id="rId96" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/270789" xr:uid="{2681FA27-B079-485C-8E01-742CC4257CF7}"/>
-    <hyperlink ref="D108" r:id="rId97" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/224641" xr:uid="{33E556E2-1F71-41CE-BDFA-B60DDFB733AC}"/>
-    <hyperlink ref="D109" r:id="rId98" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/248453" xr:uid="{FDF6FCD3-B94A-42E5-A2B2-DD779303A1C7}"/>
-    <hyperlink ref="D110" r:id="rId99" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/319153" xr:uid="{E8A63D9A-E294-4B50-8271-C9B5C7E22197}"/>
-    <hyperlink ref="D111" r:id="rId100" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/308807" xr:uid="{6A1CB74F-1FFB-46A3-96E7-A568FC2FFE32}"/>
-    <hyperlink ref="D112" r:id="rId101" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223852" xr:uid="{6E0F597F-5FA1-47AC-B260-5D1E77D16A73}"/>
-    <hyperlink ref="D113" r:id="rId102" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/254602" xr:uid="{6476AA30-F78C-416B-8C3E-262EA682B214}"/>
-    <hyperlink ref="D114" r:id="rId103" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223628" xr:uid="{6E152114-46D8-462B-BD23-3ACA409ECC5F}"/>
-    <hyperlink ref="D115" r:id="rId104" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/227443" xr:uid="{82BC0BF8-3E31-462C-9C15-BD42C625B9C7}"/>
-    <hyperlink ref="D116" r:id="rId105" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/69163" xr:uid="{514E9D7E-19F2-40E4-A10A-580D2206B18C}"/>
-    <hyperlink ref="D117" r:id="rId106" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/222880" xr:uid="{2158CB09-8FF5-4899-9A65-9B144800031B}"/>
-    <hyperlink ref="D118" r:id="rId107" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/74072" xr:uid="{2AFEA125-9666-4B86-B7CC-7978920E1450}"/>
-    <hyperlink ref="D119" r:id="rId108" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/272671" xr:uid="{BB0D3940-7E95-41BD-A6E2-DD8918B2846F}"/>
-    <hyperlink ref="D120" r:id="rId109" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/250957" xr:uid="{23309E7D-5B35-464D-B407-5E767E8B4629}"/>
-    <hyperlink ref="D121" r:id="rId110" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/311880" xr:uid="{FB04B8F1-F8F0-49D2-9EE4-5A04ABDF7028}"/>
-    <hyperlink ref="D122" r:id="rId111" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/250850" xr:uid="{3CF092FE-1423-46B3-813D-87201A73D35F}"/>
-    <hyperlink ref="D123" r:id="rId112" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/246764" xr:uid="{EDC6D631-AEEB-43FE-8512-0875C2266174}"/>
-    <hyperlink ref="D124" r:id="rId113" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/245480" xr:uid="{19BC59B5-0B76-4328-BB77-AABC842362F0}"/>
-    <hyperlink ref="D125" r:id="rId114" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/245755" xr:uid="{37B20519-6D5F-4267-9091-0DCF36DB759A}"/>
-    <hyperlink ref="D126" r:id="rId115" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/247921" xr:uid="{701852A2-81D1-4B59-89E1-AC6F353A7ACF}"/>
+    <hyperlink ref="D9" r:id="rId1" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/225194" xr:uid="{82D7C669-C07A-47DB-8368-38C5552B3C84}"/>
+    <hyperlink ref="D12" r:id="rId2" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223794" xr:uid="{CDA32688-FD84-4BEA-84F2-ECDD4FDCC9EA}"/>
+    <hyperlink ref="D13" r:id="rId3" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/277631" xr:uid="{A93EF2F3-A096-411A-BCCE-22E445B6F143}"/>
+    <hyperlink ref="D14" r:id="rId4" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/241721" xr:uid="{C07EFA14-B5A4-4126-9A04-BDAF752CB432}"/>
+    <hyperlink ref="D15" r:id="rId5" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/250363" xr:uid="{22CFA1D6-B553-40A5-A168-21F892A36398}"/>
+    <hyperlink ref="D16" r:id="rId6" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/246996" xr:uid="{AF4DA588-9461-4BB7-90E1-FEB558091BF9}"/>
+    <hyperlink ref="D17" r:id="rId7" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/227083" xr:uid="{47DC02CA-0B63-4135-B614-CCB4B4D07E26}"/>
+    <hyperlink ref="D18" r:id="rId8" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/70496" xr:uid="{264A37CB-156B-4546-AB91-872029483F10}"/>
+    <hyperlink ref="D19" r:id="rId9" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/278406" xr:uid="{AB9C83AB-9F26-4B6A-AA68-3B0453985443}"/>
+    <hyperlink ref="D20" r:id="rId10" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/238856" xr:uid="{95A93D28-FE78-4B3E-9A65-AD663C445542}"/>
+    <hyperlink ref="D21" r:id="rId11" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/242106" xr:uid="{DB014293-9180-4283-B114-7D88FFC0BEAC}"/>
+    <hyperlink ref="D22" r:id="rId12" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/242039" xr:uid="{4067E01B-6BCB-4D59-9427-4024333D7A5D}"/>
+    <hyperlink ref="D23" r:id="rId13" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/238857" xr:uid="{C3630EE2-96C5-4DEB-971A-28D0568A0EE3}"/>
+    <hyperlink ref="D24" r:id="rId14" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/305563" xr:uid="{F5162677-FE68-44C3-A032-292B4349ACA0}"/>
+    <hyperlink ref="D25" r:id="rId15" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/294335" xr:uid="{40A6238C-A70D-405B-A1C7-4D4303AC9005}"/>
+    <hyperlink ref="D26" r:id="rId16" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/229876" xr:uid="{487FF06D-6971-496C-9F1F-E0F750D84ED9}"/>
+    <hyperlink ref="D27" r:id="rId17" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/228027" xr:uid="{28705440-FABB-4E9B-B1CC-D0923B824D5A}"/>
+    <hyperlink ref="D28" r:id="rId18" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/220318" xr:uid="{1C62EB0B-576B-4377-9609-D4A99DEB1319}"/>
+    <hyperlink ref="D29" r:id="rId19" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/224791" xr:uid="{BD76C755-2FEE-4D9A-B9B3-331F8AE81E44}"/>
+    <hyperlink ref="D30" r:id="rId20" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/278993" xr:uid="{B5780F74-F466-4B4E-95D3-E27C44FD2110}"/>
+    <hyperlink ref="D31" r:id="rId21" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/228525" xr:uid="{EA911A4D-4E9B-42C1-BF08-EF12F771E6E2}"/>
+    <hyperlink ref="D8" r:id="rId22" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/236542" xr:uid="{7FFB62ED-8871-4F24-BC9A-5560FD2E2130}"/>
+    <hyperlink ref="D33" r:id="rId23" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/231382" xr:uid="{F012D39E-698D-4CF0-AC08-FF7D658727C3}"/>
+    <hyperlink ref="D34" r:id="rId24" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/230497" xr:uid="{F772F055-149B-442E-A634-A41D89FA8173}"/>
+    <hyperlink ref="D37" r:id="rId25" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/242568" xr:uid="{941922C7-CFE9-4AFF-AF0F-FE4D4BF53BA1}"/>
+    <hyperlink ref="D38" r:id="rId26" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/242818" xr:uid="{A98F393D-9492-43E3-BFAD-961C5B39BED0}"/>
+    <hyperlink ref="D40" r:id="rId27" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/271384" xr:uid="{6BFD4AA6-0BB8-47E9-A5E7-F493EB54D0F4}"/>
+    <hyperlink ref="D41" r:id="rId28" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/267602" xr:uid="{21701178-D6D1-4617-ABB1-7804127B71BF}"/>
+    <hyperlink ref="D42" r:id="rId29" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/287683" xr:uid="{1D131AC1-D939-4B58-8B0E-DB2BF86DE36A}"/>
+    <hyperlink ref="D43" r:id="rId30" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/237065" xr:uid="{AEA758FD-08C0-4DD0-820A-8A0440B1C6DF}"/>
+    <hyperlink ref="D44" r:id="rId31" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/250398" xr:uid="{DB0C8555-BD55-4968-883C-569BBEAFD9AC}"/>
+    <hyperlink ref="D45" r:id="rId32" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/239197" xr:uid="{E0851F6B-97B4-4BD9-8356-C8BA71A9E2F9}"/>
+    <hyperlink ref="D46" r:id="rId33" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/280766" xr:uid="{A4087A63-9700-4258-8424-9DD69743A4DF}"/>
+    <hyperlink ref="D47" r:id="rId34" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/272335" xr:uid="{84E4D353-3D64-4DB4-9294-A23E8AD31D80}"/>
+    <hyperlink ref="D48" r:id="rId35" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/226406" xr:uid="{C6463227-8059-4BB3-8DE2-BC8608A53C0A}"/>
+    <hyperlink ref="D49" r:id="rId36" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/232131" xr:uid="{C74B6A00-C82A-4FB6-B720-7B972F159719}"/>
+    <hyperlink ref="D50" r:id="rId37" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223565" xr:uid="{27952F67-09BA-4B8D-A813-3F87B5E0A71C}"/>
+    <hyperlink ref="D51" r:id="rId38" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/252818" xr:uid="{0BB81E52-0A70-42DC-9787-5E96F34EDD2D}"/>
+    <hyperlink ref="D52" r:id="rId39" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/64578" xr:uid="{EF0C806A-BAA9-4A42-B293-A055380CC1F9}"/>
+    <hyperlink ref="D53" r:id="rId40" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/231868" xr:uid="{9865D987-2868-47F4-89F9-693E6589F6CC}"/>
+    <hyperlink ref="D54" r:id="rId41" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/245453" xr:uid="{A1788D0F-55DF-441C-A27A-81FB3C2CAC0F}"/>
+    <hyperlink ref="D55" r:id="rId42" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/274456" xr:uid="{84F4032F-BBDF-4210-A39D-7666A765D3B9}"/>
+    <hyperlink ref="D56" r:id="rId43" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/225561" xr:uid="{0200E818-BEA5-4FC7-8C47-2E1DEED1F967}"/>
+    <hyperlink ref="D57" r:id="rId44" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/250277" xr:uid="{1DB298D8-68B9-43C7-81BC-90C7672F25C7}"/>
+    <hyperlink ref="D58" r:id="rId45" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/230976" xr:uid="{DCBAE032-0B16-457B-98F8-876D0AB2B514}"/>
+    <hyperlink ref="D59" r:id="rId46" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/278494" xr:uid="{E82C944C-4A96-4670-8E03-9EBC0036149D}"/>
+    <hyperlink ref="D60" r:id="rId47" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/59751" xr:uid="{F0FAB706-2FCA-41BC-88D9-6D8F09F64116}"/>
+    <hyperlink ref="D61" r:id="rId48" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/268655" xr:uid="{3672CE95-38AA-4993-980F-E2B1C9C71E6D}"/>
+    <hyperlink ref="D62" r:id="rId49" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/296392" xr:uid="{11F1D48B-D090-4B8F-82FB-60899A8ED700}"/>
+    <hyperlink ref="D63" r:id="rId50" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/271856" xr:uid="{D63E5642-CF32-4416-B655-61E3478177A0}"/>
+    <hyperlink ref="D64" r:id="rId51" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/238551" xr:uid="{1453DC7E-385A-4CDF-894C-EF515441CDF2}"/>
+    <hyperlink ref="D65" r:id="rId52" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/228832" xr:uid="{9EC30197-A3F9-4679-ADE0-6384D5DDDE4F}"/>
+    <hyperlink ref="D66" r:id="rId53" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/283235" xr:uid="{7BFBCDC1-839F-4BAB-AF89-ED207997EC16}"/>
+    <hyperlink ref="D67" r:id="rId54" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/253449" xr:uid="{FA8DBE39-FCD4-435E-B0C2-D9188FE80AEA}"/>
+    <hyperlink ref="D68" r:id="rId55" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/231951" xr:uid="{425673B7-C67E-4505-8D1D-E6B9DBB20D55}"/>
+    <hyperlink ref="D69" r:id="rId56" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/268250" xr:uid="{221551AE-6F74-4D3D-B208-5E4E6D8254AF}"/>
+    <hyperlink ref="D70" r:id="rId57" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/274159" xr:uid="{BEA6140F-B433-4555-86EE-4268126907A5}"/>
+    <hyperlink ref="D71" r:id="rId58" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/266515" xr:uid="{0F234D3C-F60A-45B7-B66C-71880B2F82D3}"/>
+    <hyperlink ref="D72" r:id="rId59" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223094" xr:uid="{3E6A584D-C3DE-4BA7-ABC1-96522D939087}"/>
+    <hyperlink ref="D73" r:id="rId60" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/228756" xr:uid="{B5B05A19-EFE3-4213-9D22-99A7440C9CA3}"/>
+    <hyperlink ref="D74" r:id="rId61" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/309674" xr:uid="{F86133E5-A104-4C8F-BF7F-81946DD3D6DD}"/>
+    <hyperlink ref="D75" r:id="rId62" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/280316" xr:uid="{D1FB6A9D-939C-43F8-8695-9C6208A6FE59}"/>
+    <hyperlink ref="D76" r:id="rId63" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/32274" xr:uid="{9E57D62A-A07B-44A8-ACA8-29FC071165DF}"/>
+    <hyperlink ref="D77" r:id="rId64" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/238222" xr:uid="{88411E95-1A43-4EE3-B8B2-49B88AB37B62}"/>
+    <hyperlink ref="D78" r:id="rId65" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/240630" xr:uid="{AA960634-EE87-4E1D-BC91-CB9418814E17}"/>
+    <hyperlink ref="D79" r:id="rId66" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/297057" xr:uid="{DEC8FE79-32F6-4C55-A9D1-633105907B5F}"/>
+    <hyperlink ref="D80" r:id="rId67" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/236541" xr:uid="{317BEE96-9708-408D-9577-E898D889C543}"/>
+    <hyperlink ref="D81" r:id="rId68" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223896" xr:uid="{59B034F9-EB72-495E-8C48-379ADAC58BAF}"/>
+    <hyperlink ref="D82" r:id="rId69" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223891" xr:uid="{800E3D02-5269-4007-88D3-69AA87DC04ED}"/>
+    <hyperlink ref="D83" r:id="rId70" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/74924" xr:uid="{EDE7BACA-3441-4DE3-80E1-4B2A701FB0FA}"/>
+    <hyperlink ref="D84" r:id="rId71" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/233105" xr:uid="{95D22E81-2256-4B98-9728-0073C3094094}"/>
+    <hyperlink ref="D85" r:id="rId72" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/245506" xr:uid="{CB0367DB-D82F-4B65-898B-7A60385D061D}"/>
+    <hyperlink ref="D86" r:id="rId73" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/267172" xr:uid="{08896286-0AC0-4DC3-8F6B-CD9BDBD032CF}"/>
+    <hyperlink ref="D87" r:id="rId74" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/278359" xr:uid="{6A8E3997-67E3-48A3-B692-CF50932E560D}"/>
+    <hyperlink ref="D88" r:id="rId75" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/220954" xr:uid="{968AA982-F14C-4273-BD36-8A848846397F}"/>
+    <hyperlink ref="D89" r:id="rId76" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/243478" xr:uid="{C25C89FC-DCBF-4F6D-9CDB-C6F1AB812D00}"/>
+    <hyperlink ref="D90" r:id="rId77" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/69118" xr:uid="{D87BA1EE-ED0F-4401-A191-4A544DC616D1}"/>
+    <hyperlink ref="D91" r:id="rId78" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/60089" xr:uid="{3027124C-BEBA-48D2-AF4F-E9A33EC98202}"/>
+    <hyperlink ref="D92" r:id="rId79" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/286660" xr:uid="{CF29E4F7-432A-4902-BF81-B6E380FC4C98}"/>
+    <hyperlink ref="D93" r:id="rId80" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/253211" xr:uid="{714540EA-BE51-4CB9-B191-3B75B279C1C4}"/>
+    <hyperlink ref="D94" r:id="rId81" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/256247" xr:uid="{46ED9CB9-C4AB-45A1-9261-B703EFD5D877}"/>
+    <hyperlink ref="D95" r:id="rId82" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/246640" xr:uid="{BAEF4FB5-B73E-4E27-A467-53194A7E7805}"/>
+    <hyperlink ref="D96" r:id="rId83" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/241160" xr:uid="{89C807F9-60F3-4AC5-8307-E30D2BDC8B02}"/>
+    <hyperlink ref="D98" r:id="rId84" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/289380" xr:uid="{040E2C35-6CA9-4CB4-AF5C-7BB188DD4389}"/>
+    <hyperlink ref="D99" r:id="rId85" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/228816" xr:uid="{125DE3A5-6851-4D36-98D9-5FEDEF2DFE9B}"/>
+    <hyperlink ref="D100" r:id="rId86" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223008" xr:uid="{DE0A7F8C-4E34-48D3-AAD9-A3433A6DE259}"/>
+    <hyperlink ref="D101" r:id="rId87" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/287267" xr:uid="{3759B16B-6A05-4024-A4CC-5E6D80AD9255}"/>
+    <hyperlink ref="D102" r:id="rId88" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/228815" xr:uid="{B00AEEED-E3EF-4CD2-B945-86D4880B0DAC}"/>
+    <hyperlink ref="D103" r:id="rId89" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/226665" xr:uid="{3CF5375B-6484-493B-84F2-7F6477216C25}"/>
+    <hyperlink ref="D104" r:id="rId90" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/250898" xr:uid="{A960670F-617A-4B9C-9EDC-7886D9FEB3AA}"/>
+    <hyperlink ref="D105" r:id="rId91" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/221857" xr:uid="{CF702B70-B1BE-4011-A011-6FD8E6519D3A}"/>
+    <hyperlink ref="D106" r:id="rId92" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/243121" xr:uid="{E6167DCB-9C98-408B-94BF-4CF1F2855BD6}"/>
+    <hyperlink ref="D107" r:id="rId93" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/293192" xr:uid="{AA1F9C0A-F010-4E8A-9BC6-684E33325100}"/>
+    <hyperlink ref="D108" r:id="rId94" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/237701" xr:uid="{D012BD81-9661-4AB0-8889-05F18E2D30A6}"/>
+    <hyperlink ref="D109" r:id="rId95" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/280554" xr:uid="{15819F23-2B23-4DF7-A6B3-E50FD835F4C7}"/>
+    <hyperlink ref="D110" r:id="rId96" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/270789" xr:uid="{2681FA27-B079-485C-8E01-742CC4257CF7}"/>
+    <hyperlink ref="D111" r:id="rId97" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/224641" xr:uid="{33E556E2-1F71-41CE-BDFA-B60DDFB733AC}"/>
+    <hyperlink ref="D112" r:id="rId98" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/248453" xr:uid="{FDF6FCD3-B94A-42E5-A2B2-DD779303A1C7}"/>
+    <hyperlink ref="D113" r:id="rId99" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/319153" xr:uid="{E8A63D9A-E294-4B50-8271-C9B5C7E22197}"/>
+    <hyperlink ref="D114" r:id="rId100" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/308807" xr:uid="{6A1CB74F-1FFB-46A3-96E7-A568FC2FFE32}"/>
+    <hyperlink ref="D115" r:id="rId101" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223852" xr:uid="{6E0F597F-5FA1-47AC-B260-5D1E77D16A73}"/>
+    <hyperlink ref="D116" r:id="rId102" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/254602" xr:uid="{6476AA30-F78C-416B-8C3E-262EA682B214}"/>
+    <hyperlink ref="D117" r:id="rId103" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/223628" xr:uid="{6E152114-46D8-462B-BD23-3ACA409ECC5F}"/>
+    <hyperlink ref="D118" r:id="rId104" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/227443" xr:uid="{82BC0BF8-3E31-462C-9C15-BD42C625B9C7}"/>
+    <hyperlink ref="D119" r:id="rId105" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/69163" xr:uid="{514E9D7E-19F2-40E4-A10A-580D2206B18C}"/>
+    <hyperlink ref="D120" r:id="rId106" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/222880" xr:uid="{2158CB09-8FF5-4899-9A65-9B144800031B}"/>
+    <hyperlink ref="D121" r:id="rId107" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/74072" xr:uid="{2AFEA125-9666-4B86-B7CC-7978920E1450}"/>
+    <hyperlink ref="D122" r:id="rId108" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/272671" xr:uid="{BB0D3940-7E95-41BD-A6E2-DD8918B2846F}"/>
+    <hyperlink ref="D123" r:id="rId109" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/250957" xr:uid="{23309E7D-5B35-464D-B407-5E767E8B4629}"/>
+    <hyperlink ref="D124" r:id="rId110" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/311880" xr:uid="{FB04B8F1-F8F0-49D2-9EE4-5A04ABDF7028}"/>
+    <hyperlink ref="D125" r:id="rId111" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/250850" xr:uid="{3CF092FE-1423-46B3-813D-87201A73D35F}"/>
+    <hyperlink ref="D126" r:id="rId112" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/246764" xr:uid="{EDC6D631-AEEB-43FE-8512-0875C2266174}"/>
+    <hyperlink ref="D127" r:id="rId113" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/245480" xr:uid="{19BC59B5-0B76-4328-BB77-AABC842362F0}"/>
+    <hyperlink ref="D128" r:id="rId114" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/245755" xr:uid="{37B20519-6D5F-4267-9091-0DCF36DB759A}"/>
+    <hyperlink ref="D129" r:id="rId115" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/247921" xr:uid="{701852A2-81D1-4B59-89E1-AC6F353A7ACF}"/>
+    <hyperlink ref="D6" r:id="rId116" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/53686" xr:uid="{67115DCB-5621-4D6D-B035-741D329F7DE6}"/>
+    <hyperlink ref="D97" r:id="rId117" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/235107" xr:uid="{AF4A8838-050C-40A0-9209-3CA6F4352706}"/>
+    <hyperlink ref="D10" r:id="rId118" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/250577" xr:uid="{FDE14A9D-F8D9-4168-8B94-F82B5C25EE36}"/>
+    <hyperlink ref="D11" r:id="rId119" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/224602" xr:uid="{72069FC1-9920-4D42-93E1-037A9CD0B601}"/>
+    <hyperlink ref="D32" r:id="rId120" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/225643" xr:uid="{BFD97511-3BF8-4925-AAEA-C684AEC11166}"/>
+    <hyperlink ref="D35" r:id="rId121" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/235279" xr:uid="{F729C393-5481-4141-8138-3217252E5E66}"/>
+    <hyperlink ref="D36" r:id="rId122" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/231095" xr:uid="{CDB68246-46B3-4650-8EE1-481E49D52BBA}"/>
+    <hyperlink ref="D39" r:id="rId123" display="https://www.twitch.tv/mods/minecraft/profiles/78259952-e57b-42d3-a3bd-963208c464a7/addons/69162" xr:uid="{06DFE1FA-4F75-4607-84A7-204C454F43C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId116"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId124"/>
   <tableParts count="1">
-    <tablePart r:id="rId117"/>
+    <tablePart r:id="rId125"/>
   </tableParts>
 </worksheet>
 </file>